--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rln3-Rxfp3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rln3-Rxfp3.xlsx
@@ -85,7 +85,7 @@
     <t>Rxfp3</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -525,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3193893333333333</v>
+        <v>0.014941</v>
       </c>
       <c r="N2">
-        <v>0.9581679999999999</v>
+        <v>0.044823</v>
       </c>
       <c r="O2">
-        <v>0.6989842796234754</v>
+        <v>0.02111135707456304</v>
       </c>
       <c r="P2">
-        <v>0.7709969302321839</v>
+        <v>0.0256164071193072</v>
       </c>
       <c r="Q2">
-        <v>0.3679608920524444</v>
+        <v>0.01721317249633333</v>
       </c>
       <c r="R2">
-        <v>3.311648028472</v>
+        <v>0.154918552467</v>
       </c>
       <c r="S2">
-        <v>0.6989842796234754</v>
+        <v>0.02111135707456304</v>
       </c>
       <c r="T2">
-        <v>0.7709969302321839</v>
+        <v>0.0256164071193072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.009508666666666667</v>
+        <v>0.3193893333333333</v>
       </c>
       <c r="N3">
-        <v>0.028526</v>
+        <v>0.9581679999999999</v>
       </c>
       <c r="O3">
-        <v>0.02080973854328183</v>
+        <v>0.4512912296236288</v>
       </c>
       <c r="P3">
-        <v>0.0229536557595362</v>
+        <v>0.54759435059439</v>
       </c>
       <c r="Q3">
-        <v>0.01095470982822222</v>
+        <v>0.3679608920524444</v>
       </c>
       <c r="R3">
-        <v>0.09859238845399999</v>
+        <v>3.311648028472</v>
       </c>
       <c r="S3">
-        <v>0.02080973854328183</v>
+        <v>0.4512912296236288</v>
       </c>
       <c r="T3">
-        <v>0.0229536557595362</v>
+        <v>0.54759435059439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1280355</v>
+        <v>0.373393</v>
       </c>
       <c r="N4">
-        <v>0.256071</v>
+        <v>0.7467860000000001</v>
       </c>
       <c r="O4">
-        <v>0.2802059818332427</v>
+        <v>0.5275974133018082</v>
       </c>
       <c r="P4">
-        <v>0.2060494140082799</v>
+        <v>0.4267892422863028</v>
       </c>
       <c r="Q4">
-        <v>0.1475066693765</v>
+        <v>0.4301772383323333</v>
       </c>
       <c r="R4">
-        <v>0.885040016259</v>
+        <v>2.581063429994</v>
       </c>
       <c r="S4">
-        <v>0.2802059818332427</v>
+        <v>0.5275974133018082</v>
       </c>
       <c r="T4">
-        <v>0.2060494140082799</v>
+        <v>0.4267892422863028</v>
       </c>
     </row>
   </sheetData>
